--- a/streamlit/stock_app/code.xlsx
+++ b/streamlit/stock_app/code.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Staging\streamlit\stock_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD5B33E-83AB-4CB0-8EDB-CB18D0490FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBAD0411-FB4A-4F04-A572-C22EB28B452D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17127" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17086" uniqueCount="258">
   <si>
     <t>scripCode</t>
   </si>
@@ -1119,12 +1118,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E4271"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41.44140625" bestFit="1" customWidth="1"/>
@@ -73741,196 +73741,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02CBA75E-D7C6-4734-BB42-5F4705899818}">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.77734375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>500002</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>500003</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>500008</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>500009</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>500012</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>500014</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>500016</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>500020</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>500023</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>